--- a/data/nzd0548/nzd0548.xlsx
+++ b/data/nzd0548/nzd0548.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K482"/>
+  <dimension ref="A1:K488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17535,6 +17535,240 @@
         <v>307.155</v>
       </c>
       <c r="K482" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-10 22:26:57+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>314.8357142857143</v>
+      </c>
+      <c r="C483" t="n">
+        <v>305.95</v>
+      </c>
+      <c r="D483" t="n">
+        <v>322.5707692307692</v>
+      </c>
+      <c r="E483" t="n">
+        <v>319.8</v>
+      </c>
+      <c r="F483" t="n">
+        <v>318</v>
+      </c>
+      <c r="G483" t="n">
+        <v>314.41</v>
+      </c>
+      <c r="H483" t="n">
+        <v>308.69</v>
+      </c>
+      <c r="I483" t="n">
+        <v>310.07</v>
+      </c>
+      <c r="J483" t="n">
+        <v>304.375</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-18 22:27:07+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>316.7528571428572</v>
+      </c>
+      <c r="C484" t="n">
+        <v>309.52</v>
+      </c>
+      <c r="D484" t="n">
+        <v>333.9715384615384</v>
+      </c>
+      <c r="E484" t="n">
+        <v>320.5463636363637</v>
+      </c>
+      <c r="F484" t="n">
+        <v>324.8466666666667</v>
+      </c>
+      <c r="G484" t="n">
+        <v>313.51</v>
+      </c>
+      <c r="H484" t="n">
+        <v>312.4366666666667</v>
+      </c>
+      <c r="I484" t="n">
+        <v>311.6366666666667</v>
+      </c>
+      <c r="J484" t="n">
+        <v>313.555</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:21:21+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>322.8214285714286</v>
+      </c>
+      <c r="C485" t="n">
+        <v>321.69</v>
+      </c>
+      <c r="D485" t="n">
+        <v>343.0338461538461</v>
+      </c>
+      <c r="E485" t="n">
+        <v>329.7981818181818</v>
+      </c>
+      <c r="F485" t="n">
+        <v>326.29</v>
+      </c>
+      <c r="G485" t="n">
+        <v>316.78</v>
+      </c>
+      <c r="H485" t="n">
+        <v>314.73</v>
+      </c>
+      <c r="I485" t="n">
+        <v>314.51</v>
+      </c>
+      <c r="J485" t="n">
+        <v>319.78</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-19 22:27:10+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>322.5028571428572</v>
+      </c>
+      <c r="C486" t="n">
+        <v>302.13</v>
+      </c>
+      <c r="D486" t="n">
+        <v>328.9938461538461</v>
+      </c>
+      <c r="E486" t="n">
+        <v>314.300909090909</v>
+      </c>
+      <c r="F486" t="n">
+        <v>313.7266666666667</v>
+      </c>
+      <c r="G486" t="n">
+        <v>305.81</v>
+      </c>
+      <c r="H486" t="n">
+        <v>304.5766666666667</v>
+      </c>
+      <c r="I486" t="n">
+        <v>308.4566666666667</v>
+      </c>
+      <c r="J486" t="n">
+        <v>308.62</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-27 22:27:00+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>331.2842857142857</v>
+      </c>
+      <c r="C487" t="n">
+        <v>308.04</v>
+      </c>
+      <c r="D487" t="n">
+        <v>326.56</v>
+      </c>
+      <c r="E487" t="n">
+        <v>317.7636363636364</v>
+      </c>
+      <c r="F487" t="n">
+        <v>313.3166666666667</v>
+      </c>
+      <c r="G487" t="n">
+        <v>305.28</v>
+      </c>
+      <c r="H487" t="n">
+        <v>303.0866666666667</v>
+      </c>
+      <c r="I487" t="n">
+        <v>308.5066666666667</v>
+      </c>
+      <c r="J487" t="n">
+        <v>304.225</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:21:18+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>309.2228571428572</v>
+      </c>
+      <c r="C488" t="n">
+        <v>296.98</v>
+      </c>
+      <c r="D488" t="n">
+        <v>321.9907692307692</v>
+      </c>
+      <c r="E488" t="n">
+        <v>312.6136363636364</v>
+      </c>
+      <c r="F488" t="n">
+        <v>309.2533333333333</v>
+      </c>
+      <c r="G488" t="n">
+        <v>299.85</v>
+      </c>
+      <c r="H488" t="n">
+        <v>301.1633333333333</v>
+      </c>
+      <c r="I488" t="n">
+        <v>308.4633333333333</v>
+      </c>
+      <c r="J488" t="n">
+        <v>305.865</v>
+      </c>
+      <c r="K488" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -17551,7 +17785,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B510"/>
+  <dimension ref="A1:B516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22659,6 +22893,66 @@
       </c>
       <c r="B510" t="n">
         <v>0.79</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>2024-12-10 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>2024-12-18 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>-1.01</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>2025-01-19 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>2025-01-27 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>-0.31</v>
       </c>
     </row>
   </sheetData>
@@ -22827,28 +23121,28 @@
         <v>0.0415</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2943677499459642</v>
+        <v>-0.2715954539903341</v>
       </c>
       <c r="J2" t="n">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="K2" t="n">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02418985524860073</v>
+        <v>0.02117345276586757</v>
       </c>
       <c r="M2" t="n">
-        <v>10.52084672169391</v>
+        <v>10.48560951962864</v>
       </c>
       <c r="N2" t="n">
-        <v>188.0309256590724</v>
+        <v>186.6510127430114</v>
       </c>
       <c r="O2" t="n">
-        <v>13.71243689717741</v>
+        <v>13.6620281343222</v>
       </c>
       <c r="P2" t="n">
-        <v>319.6595890080625</v>
+        <v>319.4374344318703</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -22898,28 +23192,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.1497648787920301</v>
+        <v>-0.1461764870714925</v>
       </c>
       <c r="J3" t="n">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="K3" t="n">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00928057037068164</v>
+        <v>0.009057710863925705</v>
       </c>
       <c r="M3" t="n">
-        <v>9.116742904496359</v>
+        <v>9.06472671410657</v>
       </c>
       <c r="N3" t="n">
-        <v>131.6481341971703</v>
+        <v>130.5454033660197</v>
       </c>
       <c r="O3" t="n">
-        <v>11.4738020811399</v>
+        <v>11.4256467373195</v>
       </c>
       <c r="P3" t="n">
-        <v>309.9403471464476</v>
+        <v>309.9057475139835</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -22975,28 +23269,28 @@
         <v>0.07149999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2903826181365705</v>
+        <v>-0.2735468754198532</v>
       </c>
       <c r="J4" t="n">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="K4" t="n">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0426367038340093</v>
+        <v>0.03865305434811883</v>
       </c>
       <c r="M4" t="n">
-        <v>8.030337357846005</v>
+        <v>8.003436010353887</v>
       </c>
       <c r="N4" t="n">
-        <v>103.8613192641815</v>
+        <v>103.635647013649</v>
       </c>
       <c r="O4" t="n">
-        <v>10.19123737650053</v>
+        <v>10.18015947879251</v>
       </c>
       <c r="P4" t="n">
-        <v>330.810492702145</v>
+        <v>330.6474183280259</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -23052,28 +23346,28 @@
         <v>0.0602</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2620119822365099</v>
+        <v>-0.2431012383244675</v>
       </c>
       <c r="J5" t="n">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="K5" t="n">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03529674225986879</v>
+        <v>0.03112484483875877</v>
       </c>
       <c r="M5" t="n">
-        <v>7.905790594210138</v>
+        <v>7.876232317422201</v>
       </c>
       <c r="N5" t="n">
-        <v>101.5265094269601</v>
+        <v>101.0911952773207</v>
       </c>
       <c r="O5" t="n">
-        <v>10.07603639468219</v>
+        <v>10.05441173203687</v>
       </c>
       <c r="P5" t="n">
-        <v>319.1801776181043</v>
+        <v>318.9949999263758</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -23129,28 +23423,28 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.202451920082798</v>
+        <v>-0.1853671782981955</v>
       </c>
       <c r="J6" t="n">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="K6" t="n">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01782710279763999</v>
+        <v>0.01531788486811103</v>
       </c>
       <c r="M6" t="n">
-        <v>8.219544736046958</v>
+        <v>8.193544736811894</v>
       </c>
       <c r="N6" t="n">
-        <v>123.2129494464063</v>
+        <v>122.4019779097698</v>
       </c>
       <c r="O6" t="n">
-        <v>11.10013285715114</v>
+        <v>11.06354273773866</v>
       </c>
       <c r="P6" t="n">
-        <v>316.864350066298</v>
+        <v>316.6975972327015</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -23206,28 +23500,28 @@
         <v>0.0618</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1054920001203929</v>
+        <v>0.117695771380381</v>
       </c>
       <c r="J7" t="n">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="K7" t="n">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002304481720185492</v>
+        <v>0.002943992515607952</v>
       </c>
       <c r="M7" t="n">
-        <v>11.86557996945405</v>
+        <v>11.76740987669065</v>
       </c>
       <c r="N7" t="n">
-        <v>263.4337617300014</v>
+        <v>260.2856886650313</v>
       </c>
       <c r="O7" t="n">
-        <v>16.2306426776638</v>
+        <v>16.13337189384263</v>
       </c>
       <c r="P7" t="n">
-        <v>302.2073674076548</v>
+        <v>302.0881989167365</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -23283,28 +23577,28 @@
         <v>0.0706</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1504237760921179</v>
+        <v>0.1655932844275945</v>
       </c>
       <c r="J8" t="n">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="K8" t="n">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="L8" t="n">
-        <v>0.005671492112264143</v>
+        <v>0.007050507543428841</v>
       </c>
       <c r="M8" t="n">
-        <v>11.08738426207576</v>
+        <v>10.98451600389938</v>
       </c>
       <c r="N8" t="n">
-        <v>217.2370953406044</v>
+        <v>214.6698774879043</v>
       </c>
       <c r="O8" t="n">
-        <v>14.73896520589571</v>
+        <v>14.65161688988298</v>
       </c>
       <c r="P8" t="n">
-        <v>298.3157714930674</v>
+        <v>298.1676884030465</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -23360,28 +23654,28 @@
         <v>0.0725</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1294301283333411</v>
+        <v>0.1637886146659498</v>
       </c>
       <c r="J9" t="n">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="K9" t="n">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002125868961228017</v>
+        <v>0.003485003037912215</v>
       </c>
       <c r="M9" t="n">
-        <v>15.76708641026891</v>
+        <v>15.64776740089611</v>
       </c>
       <c r="N9" t="n">
-        <v>413.4593595788203</v>
+        <v>409.2418004370694</v>
       </c>
       <c r="O9" t="n">
-        <v>20.33370009562501</v>
+        <v>20.22972566391026</v>
       </c>
       <c r="P9" t="n">
-        <v>295.1161107447727</v>
+        <v>294.7682262043132</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -23437,28 +23731,28 @@
         <v>0.0898</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1864061845139597</v>
+        <v>0.1940417747597941</v>
       </c>
       <c r="J10" t="n">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="K10" t="n">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02120987784496753</v>
+        <v>0.02344994334455375</v>
       </c>
       <c r="M10" t="n">
-        <v>7.324084240754372</v>
+        <v>7.281458598670318</v>
       </c>
       <c r="N10" t="n">
-        <v>89.37752615950018</v>
+        <v>88.59943146206918</v>
       </c>
       <c r="O10" t="n">
-        <v>9.453968804660834</v>
+        <v>9.412727100159081</v>
       </c>
       <c r="P10" t="n">
-        <v>301.9035982482322</v>
+        <v>301.8291955758253</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -23495,7 +23789,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K482"/>
+  <dimension ref="A1:K488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47553,6 +47847,348 @@
         </is>
       </c>
     </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-10 22:26:57+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>-46.59079236740487,168.8059535436092</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>-46.59017974357584,168.8061075839266</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>-46.589514370018854,168.80590426873067</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>-46.588946010128865,168.80542476589181</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>-46.58840256396181,168.80494559393003</t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>-46.5879272690355,168.80432754070316</t>
+        </is>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>-46.58746631113741,168.80371195502252</t>
+        </is>
+      </c>
+      <c r="I483" t="inlineStr">
+        <is>
+          <t>-46.58706033852638,168.80301062257442</t>
+        </is>
+      </c>
+      <c r="J483" t="inlineStr">
+        <is>
+          <t>-46.5866445598215,168.8023275004016</t>
+        </is>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-18 22:27:07+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>-46.59079100309482,168.80592862716034</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>-46.59017744869283,168.80606115945372</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>-46.58953809405036,168.80575967212786</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>-46.58894940020242,168.80541636937002</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>-46.58843909776251,168.8048737662775</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>-46.587921669195374,168.80433600792495</t>
+        </is>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>-46.58749047168224,168.80367793010205</t>
+        </is>
+      </c>
+      <c r="I484" t="inlineStr">
+        <is>
+          <t>-46.58707093375351,168.80299716998024</t>
+        </is>
+      </c>
+      <c r="J484" t="inlineStr">
+        <is>
+          <t>-46.5867086909809,168.80225220228644</t>
+        </is>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:21:21+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>-46.59078668443846,168.80584975602744</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>-46.590169625379254,168.80590290015553</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>-46.58955695180849,168.80564473428367</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>-46.58899142302082,168.8053122871873</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>-46.58844679938033,168.8048586244087</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>-46.58794201527788,168.80430524367736</t>
+        </is>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>-46.58750526033759,168.80365710344535</t>
+        </is>
+      </c>
+      <c r="I485" t="inlineStr">
+        <is>
+          <t>-46.58709036584634,168.80297249733633</t>
+        </is>
+      </c>
+      <c r="J485" t="inlineStr">
+        <is>
+          <t>-46.586752178581605,168.80220114218773</t>
+        </is>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-19 22:27:10+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>-46.590786911148925,168.80585389639018</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>-46.59018219914416,168.80615725941877</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>-46.589527735918914,168.80582280449585</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>-46.58892103257538,168.8054866301239</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>-46.58837976143841,168.80499042496768</t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>-46.58787375942383,168.80440844964025</t>
+        </is>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>-46.58743978611354,168.80374930974904</t>
+        </is>
+      </c>
+      <c r="I486" t="inlineStr">
+        <is>
+          <t>-46.58704942769487,168.80302447587866</t>
+        </is>
+      </c>
+      <c r="J486" t="inlineStr">
+        <is>
+          <t>-46.58667421525021,168.8022926811975</t>
+        </is>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-27 22:27:00+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>-46.59078066181509,168.80573976721487</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>-46.59017840007517,168.80608040545306</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>-46.589522671290254,168.8058536731036</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>-46.588936760716614,168.805447674789</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>-46.58837757367582,168.80499472622753</t>
+        </is>
+      </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>-46.587870461736394,168.8044134358835</t>
+        </is>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>-46.58743017777497,168.8037628409902</t>
+        </is>
+      </c>
+      <c r="I487" t="inlineStr">
+        <is>
+          <t>-46.58704976584051,168.80302404654077</t>
+        </is>
+      </c>
+      <c r="J487" t="inlineStr">
+        <is>
+          <t>-46.586643511926276,168.80232873076145</t>
+        </is>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:21:18+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>-46.59079636169138,168.80602649199975</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>-46.59018550962767,168.80622423031426</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>-46.58951316308316,168.80591162490052</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>-46.5889133687661,168.80550561176508</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>-46.588355891693965,168.80503735414203</t>
+        </is>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>-46.58783667598158,168.8044645213218</t>
+        </is>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>-46.58741777506241,168.8037803074846</t>
+        </is>
+      </c>
+      <c r="I488" t="inlineStr">
+        <is>
+          <t>-46.58704947278096,168.80302441863358</t>
+        </is>
+      </c>
+      <c r="J488" t="inlineStr">
+        <is>
+          <t>-46.586654968913265,168.80231527882432</t>
+        </is>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0548/nzd0548.xlsx
+++ b/data/nzd0548/nzd0548.xlsx
@@ -22966,7 +22966,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23057,35 +23057,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -23144,27 +23149,28 @@
       <c r="P2" t="n">
         <v>319.4374344318703</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (168.81004537757994 -46.59101634293526, 168.79866896430377 -46.59039326360258)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>168.8100453775799</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-46.59101634293526</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>168.7986689643038</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-46.59039326360258</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>168.8043571709418</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-46.59070480326892</v>
       </c>
     </row>
@@ -23215,27 +23221,28 @@
       <c r="P3" t="n">
         <v>309.9057475139835</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (168.8100861936626 -46.59037634600079, 168.79870325448698 -46.58981348786269)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>168.8100861936626</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-46.59037634600079</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>168.798703254487</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-46.58981348786269</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>168.8043947240748</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-46.59009491693174</v>
       </c>
     </row>
@@ -23292,27 +23299,28 @@
       <c r="P4" t="n">
         <v>330.6474183280259</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (168.80999540460692 -46.58884304999377, 168.79889393530308 -46.59066432128275)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>168.8099954046069</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-46.58884304999377</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>168.7988939353031</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-46.59066432128275</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>168.804444669955</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-46.58975368563826</v>
       </c>
     </row>
@@ -23369,27 +23377,28 @@
       <c r="P5" t="n">
         <v>318.9949999263758</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (168.80902239227981 -46.58749337985743, 168.79917727535283 -46.591468123234904)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>168.8090223922798</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-46.58749337985743</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>168.7991772753528</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-46.5914681232349</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>168.8040998338163</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-46.58948075154616</v>
       </c>
     </row>
@@ -23446,27 +23455,28 @@
       <c r="P6" t="n">
         <v>316.6975972327015</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (168.80828159309266 -46.58670566304849, 168.79910155640212 -46.59137470778442)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>168.8082815930927</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-46.58670566304849</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>168.7991015564021</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-46.59137470778442</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>168.8036915747474</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-46.58904018541645</v>
       </c>
     </row>
@@ -23523,27 +23533,28 @@
       <c r="P7" t="n">
         <v>302.0881989167365</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (168.8072854114344 -46.58597095403415, 168.79905391817616 -46.591414647914185)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>168.8072854114344</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-46.58597095403415</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>168.7990539181762</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-46.59141464791418</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>168.8031696648053</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-46.58869280097417</v>
       </c>
     </row>
@@ -23600,27 +23611,28 @@
       <c r="P8" t="n">
         <v>298.1676884030465</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (168.8065151833211 -46.58547567156773, 168.79856972868436 -46.59111735101148)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>168.8065151833211</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-46.58547567156773</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>168.7985697286844</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-46.59111735101148</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>168.8025424560027</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-46.58829651128961</v>
       </c>
     </row>
@@ -23677,27 +23689,28 @@
       <c r="P9" t="n">
         <v>294.7682262043132</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (168.8056730158355 -46.58496332783599, 168.7981606695194 -46.59087976371997)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>168.8056730158355</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-46.58496332783599</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>168.7981606695194</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-46.59087976371997</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>168.8019168426775</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-46.58792154577798</v>
       </c>
     </row>
@@ -23754,27 +23767,28 @@
       <c r="P10" t="n">
         <v>301.8291955758253</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (168.80482400681646 -46.58451817495936, 168.79764816449756 -46.59062953744669)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>168.8048240068165</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-46.58451817495936</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>168.7976481644976</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-46.59062953744669</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>168.801236085657</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-46.58757385620302</v>
       </c>
     </row>

--- a/data/nzd0548/nzd0548.xlsx
+++ b/data/nzd0548/nzd0548.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K488"/>
+  <dimension ref="A1:K493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17771,6 +17771,201 @@
       <c r="K488" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-24 22:26:51+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>321.8842857142857</v>
+      </c>
+      <c r="C489" t="n">
+        <v>319.47</v>
+      </c>
+      <c r="D489" t="n">
+        <v>334.5453846153846</v>
+      </c>
+      <c r="E489" t="n">
+        <v>323.7654545454546</v>
+      </c>
+      <c r="F489" t="n">
+        <v>322.82</v>
+      </c>
+      <c r="G489" t="n">
+        <v>320.5</v>
+      </c>
+      <c r="H489" t="n">
+        <v>314.86</v>
+      </c>
+      <c r="I489" t="n">
+        <v>316.73</v>
+      </c>
+      <c r="J489" t="n">
+        <v>315.545</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-01 22:26:38+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>306.91</v>
+      </c>
+      <c r="C490" t="n">
+        <v>305.55</v>
+      </c>
+      <c r="D490" t="n">
+        <v>325.9723076923077</v>
+      </c>
+      <c r="E490" t="n">
+        <v>313.3836363636364</v>
+      </c>
+      <c r="F490" t="n">
+        <v>316.1466666666667</v>
+      </c>
+      <c r="G490" t="n">
+        <v>308.88</v>
+      </c>
+      <c r="H490" t="n">
+        <v>309.0166666666667</v>
+      </c>
+      <c r="I490" t="n">
+        <v>307.9266666666667</v>
+      </c>
+      <c r="J490" t="n">
+        <v>314.885</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-09 22:26:50+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>312.9628571428572</v>
+      </c>
+      <c r="C491" t="n">
+        <v>311.52</v>
+      </c>
+      <c r="D491" t="n">
+        <v>331.2769230769231</v>
+      </c>
+      <c r="E491" t="n">
+        <v>322.8336363636364</v>
+      </c>
+      <c r="F491" t="n">
+        <v>322.2666666666667</v>
+      </c>
+      <c r="G491" t="n">
+        <v>317.55</v>
+      </c>
+      <c r="H491" t="n">
+        <v>314.2766666666667</v>
+      </c>
+      <c r="I491" t="n">
+        <v>316.7866666666667</v>
+      </c>
+      <c r="J491" t="n">
+        <v>310.44</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:22+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>321.5571428571428</v>
+      </c>
+      <c r="C492" t="n">
+        <v>321.71</v>
+      </c>
+      <c r="D492" t="n">
+        <v>334.7184615384616</v>
+      </c>
+      <c r="E492" t="n">
+        <v>322.2181818181818</v>
+      </c>
+      <c r="F492" t="n">
+        <v>321.8066666666667</v>
+      </c>
+      <c r="G492" t="n">
+        <v>312.94</v>
+      </c>
+      <c r="H492" t="n">
+        <v>307.7066666666667</v>
+      </c>
+      <c r="I492" t="n">
+        <v>310.6266666666667</v>
+      </c>
+      <c r="J492" t="n">
+        <v>308.47</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-03 22:26:22+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>309.4871428571428</v>
+      </c>
+      <c r="C493" t="n">
+        <v>307.6</v>
+      </c>
+      <c r="D493" t="n">
+        <v>334.1715384615384</v>
+      </c>
+      <c r="E493" t="n">
+        <v>320.1554545454546</v>
+      </c>
+      <c r="F493" t="n">
+        <v>309.66</v>
+      </c>
+      <c r="G493" t="n">
+        <v>304.78</v>
+      </c>
+      <c r="H493" t="n">
+        <v>304.19</v>
+      </c>
+      <c r="I493" t="n">
+        <v>295.25</v>
+      </c>
+      <c r="J493" t="n">
+        <v>303.445</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -17785,7 +17980,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B516"/>
+  <dimension ref="A1:B521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22953,6 +23148,56 @@
       </c>
       <c r="B516" t="n">
         <v>-0.31</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>2025-03-24 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>2025-04-01 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>-1.19</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>2025-04-09 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>2025-05-03 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
@@ -23126,28 +23371,28 @@
         <v>0.0415</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2715954539903341</v>
+        <v>-0.266312095730586</v>
       </c>
       <c r="J2" t="n">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="K2" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02117345276586757</v>
+        <v>0.02086931524620117</v>
       </c>
       <c r="M2" t="n">
-        <v>10.48560951962864</v>
+        <v>10.42012502752969</v>
       </c>
       <c r="N2" t="n">
-        <v>186.6510127430114</v>
+        <v>184.7591862414368</v>
       </c>
       <c r="O2" t="n">
-        <v>13.6620281343222</v>
+        <v>13.59261513622146</v>
       </c>
       <c r="P2" t="n">
-        <v>319.4374344318703</v>
+        <v>319.3854192773401</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23198,28 +23443,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.1461764870714925</v>
+        <v>-0.1296736535377097</v>
       </c>
       <c r="J3" t="n">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="K3" t="n">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="L3" t="n">
-        <v>0.009057710863925705</v>
+        <v>0.007263095793138552</v>
       </c>
       <c r="M3" t="n">
-        <v>9.06472671410657</v>
+        <v>9.041555382219336</v>
       </c>
       <c r="N3" t="n">
-        <v>130.5454033660197</v>
+        <v>130.0156508239103</v>
       </c>
       <c r="O3" t="n">
-        <v>11.4256467373195</v>
+        <v>11.40244056436648</v>
       </c>
       <c r="P3" t="n">
-        <v>309.9057475139835</v>
+        <v>309.7440920655758</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23276,28 +23521,28 @@
         <v>0.07149999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2735468754198532</v>
+        <v>-0.2542102562072878</v>
       </c>
       <c r="J4" t="n">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="K4" t="n">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03865305434811883</v>
+        <v>0.0340523968529266</v>
       </c>
       <c r="M4" t="n">
-        <v>8.003436010353887</v>
+        <v>7.99869878029415</v>
       </c>
       <c r="N4" t="n">
-        <v>103.635647013649</v>
+        <v>103.3653750560793</v>
       </c>
       <c r="O4" t="n">
-        <v>10.18015947879251</v>
+        <v>10.16687636671556</v>
       </c>
       <c r="P4" t="n">
-        <v>330.6474183280259</v>
+        <v>330.4576749822224</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23354,28 +23599,28 @@
         <v>0.0602</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2431012383244675</v>
+        <v>-0.2249692040812354</v>
       </c>
       <c r="J5" t="n">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="K5" t="n">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03112484483875877</v>
+        <v>0.02720664468210976</v>
       </c>
       <c r="M5" t="n">
-        <v>7.876232317422201</v>
+        <v>7.86415816630381</v>
       </c>
       <c r="N5" t="n">
-        <v>101.0911952773207</v>
+        <v>100.7244638315814</v>
       </c>
       <c r="O5" t="n">
-        <v>10.05441173203687</v>
+        <v>10.03615782217385</v>
       </c>
       <c r="P5" t="n">
-        <v>318.9949999263758</v>
+        <v>318.8150841771841</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23432,28 +23677,28 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1853671782981955</v>
+        <v>-0.1695443804680747</v>
       </c>
       <c r="J6" t="n">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="K6" t="n">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01531788486811103</v>
+        <v>0.01308472025069463</v>
       </c>
       <c r="M6" t="n">
-        <v>8.193544736811894</v>
+        <v>8.18243842404592</v>
       </c>
       <c r="N6" t="n">
-        <v>122.4019779097698</v>
+        <v>121.6964275545544</v>
       </c>
       <c r="O6" t="n">
-        <v>11.06354273773866</v>
+        <v>11.03161037902239</v>
       </c>
       <c r="P6" t="n">
-        <v>316.6975972327015</v>
+        <v>316.5410905981558</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23510,28 +23755,28 @@
         <v>0.0618</v>
       </c>
       <c r="I7" t="n">
-        <v>0.117695771380381</v>
+        <v>0.1356648298743751</v>
       </c>
       <c r="J7" t="n">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="K7" t="n">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002943992515607952</v>
+        <v>0.003987384653173498</v>
       </c>
       <c r="M7" t="n">
-        <v>11.76740987669065</v>
+        <v>11.70449434373386</v>
       </c>
       <c r="N7" t="n">
-        <v>260.2856886650313</v>
+        <v>258.1873130482608</v>
       </c>
       <c r="O7" t="n">
-        <v>16.13337189384263</v>
+        <v>16.06820814678042</v>
       </c>
       <c r="P7" t="n">
-        <v>302.0881989167365</v>
+        <v>301.9101479291598</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23588,28 +23833,28 @@
         <v>0.0706</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1655932844275945</v>
+        <v>0.1834515606005208</v>
       </c>
       <c r="J8" t="n">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="K8" t="n">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="L8" t="n">
-        <v>0.007050507543428841</v>
+        <v>0.008820729750980028</v>
       </c>
       <c r="M8" t="n">
-        <v>10.98451600389938</v>
+        <v>10.91677729408635</v>
       </c>
       <c r="N8" t="n">
-        <v>214.6698774879043</v>
+        <v>212.8515098456293</v>
       </c>
       <c r="O8" t="n">
-        <v>14.65161688988298</v>
+        <v>14.58943144353574</v>
       </c>
       <c r="P8" t="n">
-        <v>298.1676884030465</v>
+        <v>297.9909608585886</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23666,28 +23911,28 @@
         <v>0.0725</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1637886146659498</v>
+        <v>0.1887127492451735</v>
       </c>
       <c r="J9" t="n">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="K9" t="n">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003485003037912215</v>
+        <v>0.004712077171129314</v>
       </c>
       <c r="M9" t="n">
-        <v>15.64776740089611</v>
+        <v>15.55752472355598</v>
       </c>
       <c r="N9" t="n">
-        <v>409.2418004370694</v>
+        <v>406.1921855393638</v>
       </c>
       <c r="O9" t="n">
-        <v>20.22972566391026</v>
+        <v>20.15421011946049</v>
       </c>
       <c r="P9" t="n">
-        <v>294.7682262043132</v>
+        <v>294.5129356140089</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23744,28 +23989,28 @@
         <v>0.0898</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1940417747597941</v>
+        <v>0.2025507218905906</v>
       </c>
       <c r="J10" t="n">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="K10" t="n">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02344994334455375</v>
+        <v>0.02598355357986526</v>
       </c>
       <c r="M10" t="n">
-        <v>7.281458598670318</v>
+        <v>7.252588363691915</v>
       </c>
       <c r="N10" t="n">
-        <v>88.59943146206918</v>
+        <v>87.8965979925039</v>
       </c>
       <c r="O10" t="n">
-        <v>9.412727100159081</v>
+        <v>9.375318554188114</v>
       </c>
       <c r="P10" t="n">
-        <v>301.8291955758253</v>
+        <v>301.74529534884</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23803,7 +24048,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K488"/>
+  <dimension ref="A1:K493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48203,6 +48448,291 @@
         </is>
       </c>
     </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-24 22:26:51+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>-46.590787351353136,168.80586193574933</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>-46.59017105249133,168.80593176914377</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>-46.589539288170464,168.80575239400153</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>-46.58896402169361,168.80538015488366</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>-46.58842828347798,168.8048950278321</t>
+        </is>
+      </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>-46.58796516126894,168.8042702457897</t>
+        </is>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>-46.58750609864787,168.80365592286415</t>
+        </is>
+      </c>
+      <c r="I489" t="inlineStr">
+        <is>
+          <t>-46.587105379500976,168.80295343470132</t>
+        </is>
+      </c>
+      <c r="J489" t="inlineStr">
+        <is>
+          <t>-46.58672259304401,168.8022358794687</t>
+        </is>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-01 22:26:38+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>-46.59079800758014,168.8060565514195</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>-46.59018000070442,168.80611278554855</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>-46.58952144835082,168.80586112683744</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>-46.58891686620533,168.8054969493465</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>-46.588392674570215,168.8049650370367</t>
+        </is>
+      </c>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>-46.587892861118014,168.80437956704958</t>
+        </is>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>-46.58746841766223,168.80370898843813</t>
+        </is>
+      </c>
+      <c r="I490" t="inlineStr">
+        <is>
+          <t>-46.58704584335105,168.8030290268596</t>
+        </is>
+      </c>
+      <c r="J490" t="inlineStr">
+        <is>
+          <t>-46.5867179823098,168.80224129306748</t>
+        </is>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-09 22:26:50+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>-46.59079370019433,168.8059778844934</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>-46.59017616303589,168.80603515134797</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>-46.58953248680175,168.80579384809798</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>-46.5889597892666,168.80539063775726</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>-46.58842533089298,168.80490083279457</t>
+        </is>
+      </c>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>-46.58794680625012,168.80429799949337</t>
+        </is>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>-46.58750233699908,168.80366122034349</t>
+        </is>
+      </c>
+      <c r="I491" t="inlineStr">
+        <is>
+          <t>-46.587105762732364,168.8029529481174</t>
+        </is>
+      </c>
+      <c r="J491" t="inlineStr">
+        <is>
+          <t>-46.58668692970597,168.80227775281082</t>
+        </is>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:22+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>-46.590787584162996,168.80586618751212</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>-46.59016961252234,168.80590264007455</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>-46.58953964832724,168.80575019885615</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>-46.58895699379963,168.80539756156656</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>-46.58842287633412,168.8049056586063</t>
+        </is>
+      </c>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>-46.58791812262959,168.80434137049787</t>
+        </is>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>-46.58745997006729,168.80372088504555</t>
+        </is>
+      </c>
+      <c r="I492" t="inlineStr">
+        <is>
+          <t>-46.587064103213656,168.8030058426107</t>
+        </is>
+      </c>
+      <c r="J492" t="inlineStr">
+        <is>
+          <t>-46.58667316735541,168.8022939115587</t>
+        </is>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-03 22:26:22+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>-46.59079617361835,168.80602305716812</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>-46.59017868291795,168.80608612723682</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>-46.58953851023168,168.80575713551553</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>-46.588947624646316,168.80542076706124</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>-46.588358061671606,168.80503308785512</t>
+        </is>
+      </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>-46.5878673507103,168.804418139886</t>
+        </is>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>-46.58743729267462,168.80375282121253</t>
+        </is>
+      </c>
+      <c r="I493" t="inlineStr">
+        <is>
+          <t>-46.586960112098566,168.80313787812923</t>
+        </is>
+      </c>
+      <c r="J493" t="inlineStr">
+        <is>
+          <t>-46.586638062870854,168.80233512863197</t>
+        </is>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0548/nzd0548.xlsx
+++ b/data/nzd0548/nzd0548.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K493"/>
+  <dimension ref="A1:K494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17966,6 +17966,31 @@
       <c r="K493" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:18+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr"/>
+      <c r="C494" t="inlineStr"/>
+      <c r="D494" t="inlineStr"/>
+      <c r="E494" t="inlineStr"/>
+      <c r="F494" t="inlineStr"/>
+      <c r="G494" t="inlineStr"/>
+      <c r="H494" t="inlineStr"/>
+      <c r="I494" t="n">
+        <v>307.0366666666667</v>
+      </c>
+      <c r="J494" t="n">
+        <v>305.265</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -17980,7 +18005,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B521"/>
+  <dimension ref="A1:B522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23198,6 +23223,16 @@
       </c>
       <c r="B521" t="n">
         <v>0.03</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>0.43</v>
       </c>
     </row>
   </sheetData>
@@ -23374,7 +23409,7 @@
         <v>-0.266312095730586</v>
       </c>
       <c r="J2" t="n">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="K2" t="n">
         <v>382</v>
@@ -23446,7 +23481,7 @@
         <v>-0.1296736535377097</v>
       </c>
       <c r="J3" t="n">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="K3" t="n">
         <v>398</v>
@@ -23524,7 +23559,7 @@
         <v>-0.2542102562072878</v>
       </c>
       <c r="J4" t="n">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="K4" t="n">
         <v>415</v>
@@ -23602,7 +23637,7 @@
         <v>-0.2249692040812354</v>
       </c>
       <c r="J5" t="n">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="K5" t="n">
         <v>403</v>
@@ -23680,7 +23715,7 @@
         <v>-0.1695443804680747</v>
       </c>
       <c r="J6" t="n">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="K6" t="n">
         <v>389</v>
@@ -23758,7 +23793,7 @@
         <v>0.1356648298743751</v>
       </c>
       <c r="J7" t="n">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="K7" t="n">
         <v>403</v>
@@ -23836,7 +23871,7 @@
         <v>0.1834515606005208</v>
       </c>
       <c r="J8" t="n">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="K8" t="n">
         <v>393</v>
@@ -23911,28 +23946,28 @@
         <v>0.0725</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1887127492451735</v>
+        <v>0.1923704381858595</v>
       </c>
       <c r="J9" t="n">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="K9" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004712077171129314</v>
+        <v>0.004917909552396793</v>
       </c>
       <c r="M9" t="n">
-        <v>15.55752472355598</v>
+        <v>15.53107218450405</v>
       </c>
       <c r="N9" t="n">
-        <v>406.1921855393638</v>
+        <v>405.3129953686646</v>
       </c>
       <c r="O9" t="n">
-        <v>20.15421011946049</v>
+        <v>20.13238672807237</v>
       </c>
       <c r="P9" t="n">
-        <v>294.5129356140089</v>
+        <v>294.4752154456502</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23989,28 +24024,28 @@
         <v>0.0898</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2025507218905906</v>
+        <v>0.2017631304409034</v>
       </c>
       <c r="J10" t="n">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="K10" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02598355357986526</v>
+        <v>0.02590565824688751</v>
       </c>
       <c r="M10" t="n">
-        <v>7.252588363691915</v>
+        <v>7.238637255065246</v>
       </c>
       <c r="N10" t="n">
-        <v>87.8965979925039</v>
+        <v>87.68146915719983</v>
       </c>
       <c r="O10" t="n">
-        <v>9.375318554188114</v>
+        <v>9.363838377353586</v>
       </c>
       <c r="P10" t="n">
-        <v>301.74529534884</v>
+        <v>301.7531259962856</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -24048,7 +24083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K493"/>
+  <dimension ref="A1:K494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48733,6 +48768,35 @@
         </is>
       </c>
     </row>
+    <row r="494">
+      <c r="A494" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:18+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr"/>
+      <c r="C494" t="inlineStr"/>
+      <c r="D494" t="inlineStr"/>
+      <c r="E494" t="inlineStr"/>
+      <c r="F494" t="inlineStr"/>
+      <c r="G494" t="inlineStr"/>
+      <c r="H494" t="inlineStr"/>
+      <c r="I494" t="inlineStr">
+        <is>
+          <t>-46.58703982435814,168.80303666907153</t>
+        </is>
+      </c>
+      <c r="J494" t="inlineStr">
+        <is>
+          <t>-46.58665077733287,168.8023202002654</t>
+        </is>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0548/nzd0548.xlsx
+++ b/data/nzd0548/nzd0548.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -31788,7 +31788,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>-46.58750102579572,168.80366306689325</t>
+          <t>-46.587501025795724,168.80366306689325</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">

--- a/data/nzd0548/nzd0548.xlsx
+++ b/data/nzd0548/nzd0548.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K494"/>
+  <dimension ref="A1:K495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17991,6 +17991,41 @@
       <c r="K494" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-20 22:26:40+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>322.9114285714285</v>
+      </c>
+      <c r="C495" t="n">
+        <v>315.51</v>
+      </c>
+      <c r="D495" t="n">
+        <v>326.9246153846154</v>
+      </c>
+      <c r="E495" t="n">
+        <v>316.4618181818182</v>
+      </c>
+      <c r="F495" t="n">
+        <v>310.0966666666667</v>
+      </c>
+      <c r="G495" t="inlineStr"/>
+      <c r="H495" t="inlineStr"/>
+      <c r="I495" t="n">
+        <v>274.6566666666667</v>
+      </c>
+      <c r="J495" t="n">
+        <v>309.66</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -18005,7 +18040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B522"/>
+  <dimension ref="A1:B523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23233,6 +23268,16 @@
       </c>
       <c r="B522" t="n">
         <v>0.43</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>2025-06-20 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -23406,28 +23451,28 @@
         <v>0.0415</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.266312095730586</v>
+        <v>-0.2610178629011941</v>
       </c>
       <c r="J2" t="n">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K2" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02086931524620117</v>
+        <v>0.02014299256153951</v>
       </c>
       <c r="M2" t="n">
-        <v>10.42012502752969</v>
+        <v>10.41976371800023</v>
       </c>
       <c r="N2" t="n">
-        <v>184.7591862414368</v>
+        <v>184.5586006886244</v>
       </c>
       <c r="O2" t="n">
-        <v>13.59261513622146</v>
+        <v>13.58523465710565</v>
       </c>
       <c r="P2" t="n">
-        <v>319.3854192773401</v>
+        <v>319.3326827740599</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23478,28 +23523,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.1296736535377097</v>
+        <v>-0.1253338335371403</v>
       </c>
       <c r="J3" t="n">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K3" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007263095793138552</v>
+        <v>0.006812263016542475</v>
       </c>
       <c r="M3" t="n">
-        <v>9.041555382219336</v>
+        <v>9.041464475806787</v>
       </c>
       <c r="N3" t="n">
-        <v>130.0156508239103</v>
+        <v>129.8970453556567</v>
       </c>
       <c r="O3" t="n">
-        <v>11.40244056436648</v>
+        <v>11.39723849691918</v>
       </c>
       <c r="P3" t="n">
-        <v>309.7440920655758</v>
+        <v>309.7011302069761</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23556,28 +23601,28 @@
         <v>0.07149999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2542102562072878</v>
+        <v>-0.2528085396109442</v>
       </c>
       <c r="J4" t="n">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K4" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0340523968529266</v>
+        <v>0.03384539570419365</v>
       </c>
       <c r="M4" t="n">
-        <v>7.99869878029415</v>
+        <v>7.986142426464151</v>
       </c>
       <c r="N4" t="n">
-        <v>103.3653750560793</v>
+        <v>103.1392243972978</v>
       </c>
       <c r="O4" t="n">
-        <v>10.16687636671556</v>
+        <v>10.15574834255447</v>
       </c>
       <c r="P4" t="n">
-        <v>330.4576749822224</v>
+        <v>330.4437876808615</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23634,28 +23679,28 @@
         <v>0.0602</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2249692040812354</v>
+        <v>-0.2233189946757517</v>
       </c>
       <c r="J5" t="n">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K5" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02720664468210976</v>
+        <v>0.02694516420630577</v>
       </c>
       <c r="M5" t="n">
-        <v>7.86415816630381</v>
+        <v>7.852318708964122</v>
       </c>
       <c r="N5" t="n">
-        <v>100.7244638315814</v>
+        <v>100.5048998227886</v>
       </c>
       <c r="O5" t="n">
-        <v>10.03615782217385</v>
+        <v>10.02521320585196</v>
       </c>
       <c r="P5" t="n">
-        <v>318.8150841771841</v>
+        <v>318.7985496959537</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23712,28 +23757,28 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1695443804680747</v>
+        <v>-0.1705372595545372</v>
       </c>
       <c r="J6" t="n">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K6" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01308472025069463</v>
+        <v>0.01330312255529731</v>
       </c>
       <c r="M6" t="n">
-        <v>8.18243842404592</v>
+        <v>8.166787495002735</v>
       </c>
       <c r="N6" t="n">
-        <v>121.6964275545544</v>
+        <v>121.3950581227254</v>
       </c>
       <c r="O6" t="n">
-        <v>11.03161037902239</v>
+        <v>11.01794255397646</v>
       </c>
       <c r="P6" t="n">
-        <v>316.5410905981558</v>
+        <v>316.5510203706438</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23793,7 +23838,7 @@
         <v>0.1356648298743751</v>
       </c>
       <c r="J7" t="n">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K7" t="n">
         <v>403</v>
@@ -23871,7 +23916,7 @@
         <v>0.1834515606005208</v>
       </c>
       <c r="J8" t="n">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K8" t="n">
         <v>393</v>
@@ -23946,28 +23991,28 @@
         <v>0.0725</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1923704381858595</v>
+        <v>0.1804949895736605</v>
       </c>
       <c r="J9" t="n">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K9" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004917909552396793</v>
+        <v>0.004337034226970626</v>
       </c>
       <c r="M9" t="n">
-        <v>15.53107218450405</v>
+        <v>15.57477924395816</v>
       </c>
       <c r="N9" t="n">
-        <v>405.3129953686646</v>
+        <v>405.8305615983915</v>
       </c>
       <c r="O9" t="n">
-        <v>20.13238672807237</v>
+        <v>20.14523669750225</v>
       </c>
       <c r="P9" t="n">
-        <v>294.4752154456502</v>
+        <v>294.5981964786325</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24024,28 +24069,28 @@
         <v>0.0898</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2017631304409034</v>
+        <v>0.2029924043764179</v>
       </c>
       <c r="J10" t="n">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K10" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02590565824688751</v>
+        <v>0.02633216980975417</v>
       </c>
       <c r="M10" t="n">
-        <v>7.238637255065246</v>
+        <v>7.226958119224351</v>
       </c>
       <c r="N10" t="n">
-        <v>87.68146915719983</v>
+        <v>87.47799027685004</v>
       </c>
       <c r="O10" t="n">
-        <v>9.363838377353586</v>
+        <v>9.352966923754732</v>
       </c>
       <c r="P10" t="n">
-        <v>301.7531259962856</v>
+        <v>301.7408489881588</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -24083,7 +24128,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K494"/>
+  <dimension ref="A1:K495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48797,6 +48842,55 @@
         </is>
       </c>
     </row>
+    <row r="495">
+      <c r="A495" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-20 22:26:40+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>-46.590786620390176,168.80584858632858</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>-46.5901735981327,168.80598326518188</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>-46.589523430024684,168.8058490486665</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>-46.58893084769692,168.8054623201157</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>-46.588360391729346,168.80502850684175</t>
+        </is>
+      </c>
+      <c r="G495" t="inlineStr"/>
+      <c r="H495" t="inlineStr"/>
+      <c r="I495" t="inlineStr">
+        <is>
+          <t>-46.586820840834044,168.80331470703706</t>
+        </is>
+      </c>
+      <c r="J495" t="inlineStr">
+        <is>
+          <t>-46.586681480653766,168.8022841506917</t>
+        </is>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0548/nzd0548.xlsx
+++ b/data/nzd0548/nzd0548.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K495"/>
+  <dimension ref="A1:K498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18026,6 +18026,105 @@
       <c r="K495" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:56+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>297.0885714285715</v>
+      </c>
+      <c r="C496" t="n">
+        <v>315.91</v>
+      </c>
+      <c r="D496" t="inlineStr"/>
+      <c r="E496" t="inlineStr"/>
+      <c r="F496" t="inlineStr"/>
+      <c r="G496" t="inlineStr"/>
+      <c r="H496" t="inlineStr"/>
+      <c r="I496" t="inlineStr"/>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:30+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>332.14</v>
+      </c>
+      <c r="C497" t="n">
+        <v>320.86</v>
+      </c>
+      <c r="D497" t="n">
+        <v>326.2084615384616</v>
+      </c>
+      <c r="E497" t="n">
+        <v>311.1190909090909</v>
+      </c>
+      <c r="F497" t="n">
+        <v>304.5866666666667</v>
+      </c>
+      <c r="G497" t="n">
+        <v>281.88</v>
+      </c>
+      <c r="H497" t="n">
+        <v>283.1866666666667</v>
+      </c>
+      <c r="I497" t="n">
+        <v>268.3266666666667</v>
+      </c>
+      <c r="J497" t="n">
+        <v>306.515</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:21:03+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>324.0271428571428</v>
+      </c>
+      <c r="C498" t="n">
+        <v>322.6</v>
+      </c>
+      <c r="D498" t="n">
+        <v>341.0515384615384</v>
+      </c>
+      <c r="E498" t="n">
+        <v>326.0654545454545</v>
+      </c>
+      <c r="F498" t="n">
+        <v>318.39</v>
+      </c>
+      <c r="G498" t="n">
+        <v>315.5700000000001</v>
+      </c>
+      <c r="H498" t="inlineStr"/>
+      <c r="I498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>316.725</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -18040,7 +18139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B523"/>
+  <dimension ref="A1:B526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23278,6 +23377,36 @@
       </c>
       <c r="B523" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>-0.72</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
@@ -23451,28 +23580,28 @@
         <v>0.0415</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2610178629011941</v>
+        <v>-0.253215400802129</v>
       </c>
       <c r="J2" t="n">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="K2" t="n">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02014299256153951</v>
+        <v>0.01908727649432562</v>
       </c>
       <c r="M2" t="n">
-        <v>10.41976371800023</v>
+        <v>10.458877709986</v>
       </c>
       <c r="N2" t="n">
-        <v>184.5586006886244</v>
+        <v>185.0748960679752</v>
       </c>
       <c r="O2" t="n">
-        <v>13.58523465710565</v>
+        <v>13.60422346435015</v>
       </c>
       <c r="P2" t="n">
-        <v>319.3326827740599</v>
+        <v>319.254588070098</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23523,28 +23652,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.1253338335371403</v>
+        <v>-0.1066256592754048</v>
       </c>
       <c r="J3" t="n">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="K3" t="n">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006812263016542475</v>
+        <v>0.004963195878852966</v>
       </c>
       <c r="M3" t="n">
-        <v>9.041464475806787</v>
+        <v>9.070606323105464</v>
       </c>
       <c r="N3" t="n">
-        <v>129.8970453556567</v>
+        <v>130.2869397475463</v>
       </c>
       <c r="O3" t="n">
-        <v>11.39723849691918</v>
+        <v>11.41433045550839</v>
       </c>
       <c r="P3" t="n">
-        <v>309.7011302069761</v>
+        <v>309.5153900587964</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23601,28 +23730,28 @@
         <v>0.07149999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2528085396109442</v>
+        <v>-0.2439248460642246</v>
       </c>
       <c r="J4" t="n">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="K4" t="n">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03384539570419365</v>
+        <v>0.03167377072379951</v>
       </c>
       <c r="M4" t="n">
-        <v>7.986142426464151</v>
+        <v>7.989732309918669</v>
       </c>
       <c r="N4" t="n">
-        <v>103.1392243972978</v>
+        <v>103.3586752323402</v>
       </c>
       <c r="O4" t="n">
-        <v>10.15574834255447</v>
+        <v>10.16654686864425</v>
       </c>
       <c r="P4" t="n">
-        <v>330.4437876808615</v>
+        <v>330.3554076110515</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23679,28 +23808,28 @@
         <v>0.0602</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2233189946757517</v>
+        <v>-0.2180403291212724</v>
       </c>
       <c r="J5" t="n">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="K5" t="n">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02694516420630577</v>
+        <v>0.02586700260586883</v>
       </c>
       <c r="M5" t="n">
-        <v>7.852318708964122</v>
+        <v>7.847451015297385</v>
       </c>
       <c r="N5" t="n">
-        <v>100.5048998227886</v>
+        <v>100.4374203101315</v>
       </c>
       <c r="O5" t="n">
-        <v>10.02521320585196</v>
+        <v>10.02184715060709</v>
       </c>
       <c r="P5" t="n">
-        <v>318.7985496959537</v>
+        <v>318.7454087700846</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23757,28 +23886,28 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1705372595545372</v>
+        <v>-0.1711279333425111</v>
       </c>
       <c r="J6" t="n">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="K6" t="n">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01330312255529731</v>
+        <v>0.01350450606133058</v>
       </c>
       <c r="M6" t="n">
-        <v>8.166787495002735</v>
+        <v>8.160402711626183</v>
       </c>
       <c r="N6" t="n">
-        <v>121.3950581227254</v>
+        <v>121.0209724638419</v>
       </c>
       <c r="O6" t="n">
-        <v>11.01794255397646</v>
+        <v>11.00095325250689</v>
       </c>
       <c r="P6" t="n">
-        <v>316.5510203706438</v>
+        <v>316.5568752300113</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23835,28 +23964,28 @@
         <v>0.0618</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1356648298743751</v>
+        <v>0.1294473357845527</v>
       </c>
       <c r="J7" t="n">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="K7" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003987384653173498</v>
+        <v>0.003645068884850056</v>
       </c>
       <c r="M7" t="n">
-        <v>11.70449434373386</v>
+        <v>11.73438541942199</v>
       </c>
       <c r="N7" t="n">
-        <v>258.1873130482608</v>
+        <v>258.5322836258778</v>
       </c>
       <c r="O7" t="n">
-        <v>16.06820814678042</v>
+        <v>16.0789391324763</v>
       </c>
       <c r="P7" t="n">
-        <v>301.9101479291598</v>
+        <v>301.9724780638269</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23913,28 +24042,28 @@
         <v>0.0706</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1834515606005208</v>
+        <v>0.1740751691893098</v>
       </c>
       <c r="J8" t="n">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="K8" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L8" t="n">
-        <v>0.008820729750980028</v>
+        <v>0.007953794132167236</v>
       </c>
       <c r="M8" t="n">
-        <v>10.91677729408635</v>
+        <v>10.95083116591523</v>
       </c>
       <c r="N8" t="n">
-        <v>212.8515098456293</v>
+        <v>213.2758689882087</v>
       </c>
       <c r="O8" t="n">
-        <v>14.58943144353574</v>
+        <v>14.60396757693637</v>
       </c>
       <c r="P8" t="n">
-        <v>297.9909608585886</v>
+        <v>298.0849761465947</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23991,28 +24120,28 @@
         <v>0.0725</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1804949895736605</v>
+        <v>0.1657177137075729</v>
       </c>
       <c r="J9" t="n">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="K9" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004337034226970626</v>
+        <v>0.00365505081327</v>
       </c>
       <c r="M9" t="n">
-        <v>15.57477924395816</v>
+        <v>15.63799886552405</v>
       </c>
       <c r="N9" t="n">
-        <v>405.8305615983915</v>
+        <v>407.2013343159395</v>
       </c>
       <c r="O9" t="n">
-        <v>20.14523669750225</v>
+        <v>20.17923027065055</v>
       </c>
       <c r="P9" t="n">
-        <v>294.5981964786325</v>
+        <v>294.7515779130239</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24069,28 +24198,28 @@
         <v>0.0898</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2029924043764179</v>
+        <v>0.2071969411945404</v>
       </c>
       <c r="J10" t="n">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="K10" t="n">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02633216980975417</v>
+        <v>0.02758939031447205</v>
       </c>
       <c r="M10" t="n">
-        <v>7.226958119224351</v>
+        <v>7.21577012934185</v>
       </c>
       <c r="N10" t="n">
-        <v>87.47799027685004</v>
+        <v>87.27398680895494</v>
       </c>
       <c r="O10" t="n">
-        <v>9.352966923754732</v>
+        <v>9.342054742344157</v>
       </c>
       <c r="P10" t="n">
-        <v>301.7408489881588</v>
+        <v>301.6986533846169</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -24128,7 +24257,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K495"/>
+  <dimension ref="A1:K498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48891,6 +49020,141 @@
         </is>
       </c>
     </row>
+    <row r="496">
+      <c r="A496" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:56+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>-46.59080499667436,168.80618419722157</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>-46.590173340998255,168.80597806356155</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr"/>
+      <c r="E496" t="inlineStr"/>
+      <c r="F496" t="inlineStr"/>
+      <c r="G496" t="inlineStr"/>
+      <c r="H496" t="inlineStr"/>
+      <c r="I496" t="inlineStr"/>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:30+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>-46.59078005283702,168.80572864579554</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>-46.59017015894001,168.80591369351575</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>-46.58952193976765,168.80585813168526</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>-46.588906580346034,168.8055224252403</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>-46.588330990299134,168.80508631150852</t>
+        </is>
+      </c>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>-46.587724865486905,168.80463358262327</t>
+        </is>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>-46.58730185147246,168.80394355979135</t>
+        </is>
+      </c>
+      <c r="I497" t="inlineStr">
+        <is>
+          <t>-46.58677803142783,168.80336906070517</t>
+        </is>
+      </c>
+      <c r="J497" t="inlineStr">
+        <is>
+          <t>-46.58665950979178,168.8023099472623</t>
+        </is>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:21:03+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>-46.59078582639389,168.80583408577604</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>-46.59016904038977,168.80589106647176</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>-46.58955282683408,168.80566987602865</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>-46.588974468557886,168.8053542800766</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>-46.58840464500239,168.80494150248404</t>
+        </is>
+      </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>-46.587934486606216,168.80431662739244</t>
+        </is>
+      </c>
+      <c r="H498" t="inlineStr"/>
+      <c r="I498" t="inlineStr"/>
+      <c r="J498" t="inlineStr">
+        <is>
+          <t>-46.586730836477166,168.80222620060795</t>
+        </is>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0548/nzd0548.xlsx
+++ b/data/nzd0548/nzd0548.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K498"/>
+  <dimension ref="A1:K504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18118,13 +18118,233 @@
         <v>315.5700000000001</v>
       </c>
       <c r="H498" t="inlineStr"/>
-      <c r="I498" t="inlineStr"/>
+      <c r="I498" t="n">
+        <v>316.71</v>
+      </c>
       <c r="J498" t="n">
         <v>316.725</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-30 22:26:51+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr"/>
+      <c r="C499" t="inlineStr"/>
+      <c r="D499" t="inlineStr"/>
+      <c r="E499" t="inlineStr"/>
+      <c r="F499" t="inlineStr"/>
+      <c r="G499" t="inlineStr"/>
+      <c r="H499" t="inlineStr"/>
+      <c r="I499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>307.505</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:26:57+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>306.7485714285714</v>
+      </c>
+      <c r="C500" t="n">
+        <v>305.72</v>
+      </c>
+      <c r="D500" t="n">
+        <v>327.97</v>
+      </c>
+      <c r="E500" t="n">
+        <v>318.5472727272727</v>
+      </c>
+      <c r="F500" t="n">
+        <v>317.2933333333333</v>
+      </c>
+      <c r="G500" t="n">
+        <v>314.99</v>
+      </c>
+      <c r="H500" t="n">
+        <v>313.5133333333333</v>
+      </c>
+      <c r="I500" t="n">
+        <v>309.7733333333333</v>
+      </c>
+      <c r="J500" t="n">
+        <v>310.89</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:48+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>296.6271428571428</v>
+      </c>
+      <c r="C501" t="n">
+        <v>284.14</v>
+      </c>
+      <c r="D501" t="n">
+        <v>310.5207692307692</v>
+      </c>
+      <c r="E501" t="n">
+        <v>300.5472727272727</v>
+      </c>
+      <c r="F501" t="n">
+        <v>295.46</v>
+      </c>
+      <c r="G501" t="n">
+        <v>288.85</v>
+      </c>
+      <c r="H501" t="n">
+        <v>293.37</v>
+      </c>
+      <c r="I501" t="n">
+        <v>283.2</v>
+      </c>
+      <c r="J501" t="n">
+        <v>297.77</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-15 22:27:03+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>309.52</v>
+      </c>
+      <c r="C502" t="n">
+        <v>309.03</v>
+      </c>
+      <c r="D502" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="E502" t="n">
+        <v>320.99</v>
+      </c>
+      <c r="F502" t="n">
+        <v>321.05</v>
+      </c>
+      <c r="G502" t="n">
+        <v>319.08</v>
+      </c>
+      <c r="H502" t="n">
+        <v>321.24</v>
+      </c>
+      <c r="I502" t="n">
+        <v>323.08</v>
+      </c>
+      <c r="J502" t="n">
+        <v>313.32</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:20:50+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>293.65</v>
+      </c>
+      <c r="C503" t="n">
+        <v>290.53</v>
+      </c>
+      <c r="D503" t="n">
+        <v>306.3953846153846</v>
+      </c>
+      <c r="E503" t="n">
+        <v>300.7318181818182</v>
+      </c>
+      <c r="F503" t="n">
+        <v>299.6633333333333</v>
+      </c>
+      <c r="G503" t="n">
+        <v>288.59</v>
+      </c>
+      <c r="H503" t="n">
+        <v>281.0533333333333</v>
+      </c>
+      <c r="I503" t="n">
+        <v>275.9233333333333</v>
+      </c>
+      <c r="J503" t="n">
+        <v>287.74</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-23 22:27:01+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>317.08</v>
+      </c>
+      <c r="C504" t="n">
+        <v>308.37</v>
+      </c>
+      <c r="D504" t="n">
+        <v>331.4946153846154</v>
+      </c>
+      <c r="E504" t="n">
+        <v>318.9181818181818</v>
+      </c>
+      <c r="F504" t="n">
+        <v>317.8366666666667</v>
+      </c>
+      <c r="G504" t="n">
+        <v>310.5</v>
+      </c>
+      <c r="H504" t="n">
+        <v>311.6966666666667</v>
+      </c>
+      <c r="I504" t="n">
+        <v>312.8666666666667</v>
+      </c>
+      <c r="J504" t="n">
+        <v>311.1</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -18139,7 +18359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B526"/>
+  <dimension ref="A1:B532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23407,6 +23627,66 @@
       </c>
       <c r="B526" t="n">
         <v>0.03</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>2025-07-30 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>2025-08-15 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>2025-08-23 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>-0.5600000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -23580,28 +23860,28 @@
         <v>0.0415</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.253215400802129</v>
+        <v>-0.2723332981303994</v>
       </c>
       <c r="J2" t="n">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="K2" t="n">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01908727649432562</v>
+        <v>0.02238811249609318</v>
       </c>
       <c r="M2" t="n">
-        <v>10.458877709986</v>
+        <v>10.44867645837362</v>
       </c>
       <c r="N2" t="n">
-        <v>185.0748960679752</v>
+        <v>184.421912113138</v>
       </c>
       <c r="O2" t="n">
-        <v>13.60422346435015</v>
+        <v>13.58020294815722</v>
       </c>
       <c r="P2" t="n">
-        <v>319.254588070098</v>
+        <v>319.4463056856841</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23652,28 +23932,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.1066256592754048</v>
+        <v>-0.12290271162169</v>
       </c>
       <c r="J3" t="n">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="K3" t="n">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004963195878852966</v>
+        <v>0.006650766197253799</v>
       </c>
       <c r="M3" t="n">
-        <v>9.070606323105464</v>
+        <v>9.068505387019044</v>
       </c>
       <c r="N3" t="n">
-        <v>130.2869397475463</v>
+        <v>130.5849889459278</v>
       </c>
       <c r="O3" t="n">
-        <v>11.41433045550839</v>
+        <v>11.42737891845404</v>
       </c>
       <c r="P3" t="n">
-        <v>309.5153900587964</v>
+        <v>309.6776458448535</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23730,28 +24010,28 @@
         <v>0.07149999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2439248460642246</v>
+        <v>-0.247795210070885</v>
       </c>
       <c r="J4" t="n">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="K4" t="n">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03167377072379951</v>
+        <v>0.03292967957169612</v>
       </c>
       <c r="M4" t="n">
-        <v>7.989732309918669</v>
+        <v>8.023648714233937</v>
       </c>
       <c r="N4" t="n">
-        <v>103.3586752323402</v>
+        <v>103.7436838572823</v>
       </c>
       <c r="O4" t="n">
-        <v>10.16654686864425</v>
+        <v>10.18546434176088</v>
       </c>
       <c r="P4" t="n">
-        <v>330.3554076110515</v>
+        <v>330.3939767381453</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23808,28 +24088,28 @@
         <v>0.0602</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2180403291212724</v>
+        <v>-0.2205691621186278</v>
       </c>
       <c r="J5" t="n">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="K5" t="n">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02586700260586883</v>
+        <v>0.02682516619881148</v>
       </c>
       <c r="M5" t="n">
-        <v>7.847451015297385</v>
+        <v>7.860810200801761</v>
       </c>
       <c r="N5" t="n">
-        <v>100.4374203101315</v>
+        <v>100.2756855979792</v>
       </c>
       <c r="O5" t="n">
-        <v>10.02184715060709</v>
+        <v>10.01377479265333</v>
       </c>
       <c r="P5" t="n">
-        <v>318.7454087700846</v>
+        <v>318.7708861432768</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23886,28 +24166,28 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1711279333425111</v>
+        <v>-0.1753878101964275</v>
       </c>
       <c r="J6" t="n">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="K6" t="n">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01350450606133058</v>
+        <v>0.01436364029243753</v>
       </c>
       <c r="M6" t="n">
-        <v>8.160402711626183</v>
+        <v>8.181447696176599</v>
       </c>
       <c r="N6" t="n">
-        <v>121.0209724638419</v>
+        <v>120.9348047387192</v>
       </c>
       <c r="O6" t="n">
-        <v>11.00095325250689</v>
+        <v>10.99703617974949</v>
       </c>
       <c r="P6" t="n">
-        <v>316.5568752300113</v>
+        <v>316.5997307463543</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23964,28 +24244,28 @@
         <v>0.0618</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1294473357845527</v>
+        <v>0.1273141621781336</v>
       </c>
       <c r="J7" t="n">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="K7" t="n">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003645068884850056</v>
+        <v>0.003584284538983851</v>
       </c>
       <c r="M7" t="n">
-        <v>11.73438541942199</v>
+        <v>11.74382236513862</v>
       </c>
       <c r="N7" t="n">
-        <v>258.5322836258778</v>
+        <v>257.4791987465046</v>
       </c>
       <c r="O7" t="n">
-        <v>16.0789391324763</v>
+        <v>16.04615837970274</v>
       </c>
       <c r="P7" t="n">
-        <v>301.9724780638269</v>
+        <v>301.9939718702016</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24042,28 +24322,28 @@
         <v>0.0706</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1740751691893098</v>
+        <v>0.1776887703875444</v>
       </c>
       <c r="J8" t="n">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="K8" t="n">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="L8" t="n">
-        <v>0.007953794132167236</v>
+        <v>0.008387075074293593</v>
       </c>
       <c r="M8" t="n">
-        <v>10.95083116591523</v>
+        <v>10.98277477703513</v>
       </c>
       <c r="N8" t="n">
-        <v>213.2758689882087</v>
+        <v>213.3548134577651</v>
       </c>
       <c r="O8" t="n">
-        <v>14.60396757693637</v>
+        <v>14.60667017008891</v>
       </c>
       <c r="P8" t="n">
-        <v>298.0849761465947</v>
+        <v>298.0485345963143</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24120,28 +24400,28 @@
         <v>0.0725</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1657177137075729</v>
+        <v>0.1781953540939922</v>
       </c>
       <c r="J9" t="n">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="K9" t="n">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00365505081327</v>
+        <v>0.004296469265656189</v>
       </c>
       <c r="M9" t="n">
-        <v>15.63799886552405</v>
+        <v>15.64481091991874</v>
       </c>
       <c r="N9" t="n">
-        <v>407.2013343159395</v>
+        <v>406.0422489772624</v>
       </c>
       <c r="O9" t="n">
-        <v>20.17923027065055</v>
+        <v>20.15049004310472</v>
       </c>
       <c r="P9" t="n">
-        <v>294.7515779130239</v>
+        <v>294.6215833523072</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24198,28 +24478,28 @@
         <v>0.0898</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2071969411945404</v>
+        <v>0.2009167598693891</v>
       </c>
       <c r="J10" t="n">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="K10" t="n">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02758939031447205</v>
+        <v>0.02631763367368933</v>
       </c>
       <c r="M10" t="n">
-        <v>7.21577012934185</v>
+        <v>7.216551944439799</v>
       </c>
       <c r="N10" t="n">
-        <v>87.27398680895494</v>
+        <v>87.28892801613262</v>
       </c>
       <c r="O10" t="n">
-        <v>9.342054742344157</v>
+        <v>9.342854382689083</v>
       </c>
       <c r="P10" t="n">
-        <v>301.6986533846169</v>
+        <v>301.7618527367477</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -24257,7 +24537,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K498"/>
+  <dimension ref="A1:K504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49143,7 +49423,11 @@
         </is>
       </c>
       <c r="H498" t="inlineStr"/>
-      <c r="I498" t="inlineStr"/>
+      <c r="I498" t="inlineStr">
+        <is>
+          <t>-46.58710524424285,168.80295360643683</t>
+        </is>
+      </c>
       <c r="J498" t="inlineStr">
         <is>
           <t>-46.586730836477166,168.80222620060795</t>
@@ -49152,6 +49436,316 @@
       <c r="K498" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-30 22:26:51+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr"/>
+      <c r="C499" t="inlineStr"/>
+      <c r="D499" t="inlineStr"/>
+      <c r="E499" t="inlineStr"/>
+      <c r="F499" t="inlineStr"/>
+      <c r="G499" t="inlineStr"/>
+      <c r="H499" t="inlineStr"/>
+      <c r="I499" t="inlineStr"/>
+      <c r="J499" t="inlineStr">
+        <is>
+          <t>-46.58666642589848,168.80230182688143</t>
+        </is>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:26:57+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>-46.59079812245659,168.80605864945198</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>-46.590179891424796,168.8061105748592</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>-46.58952560538243,168.8058357899949</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>-46.58894032008923,168.80543885895537</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>-46.58839879318701,168.80495300748953</t>
+        </is>
+      </c>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>-46.587930877821,168.80432208404818</t>
+        </is>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>-46.587497414612535,168.80366815247245</t>
+        </is>
+      </c>
+      <c r="I500" t="inlineStr">
+        <is>
+          <t>-46.58705833219592,168.80301316997995</t>
+        </is>
+      </c>
+      <c r="J500" t="inlineStr">
+        <is>
+          <t>-46.586690073389754,168.8022740617251</t>
+        </is>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:48+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>-46.590805325031226,168.80619019425447</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>-46.59019376316801,168.80639120245834</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>-46.58948929478957,168.8060570994396</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>-46.58885856169644,168.80564135693797</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>-46.58828229022031,168.80518205800158</t>
+        </is>
+      </c>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>-46.58776823330741,168.8045680091237</t>
+        </is>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>-46.58736751932677,168.80385108151685</t>
+        </is>
+      </c>
+      <c r="I501" t="inlineStr">
+        <is>
+          <t>-46.58687861883349,168.80324134805267</t>
+        </is>
+      </c>
+      <c r="J501" t="inlineStr">
+        <is>
+          <t>-46.586598417487494,168.80238167720216</t>
+        </is>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-15 22:27:03+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>-46.590796150236294,168.80602263013498</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>-46.59017776367788,168.8060675314399</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>-46.589539818001086,168.80574916469874</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>-46.58895141525193,168.80541137850153</t>
+        </is>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>-46.58841883876219,168.80491359671586</t>
+        </is>
+      </c>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>-46.58795632597267,168.80428360520196</t>
+        </is>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>-46.5875472403204,168.80359798352794</t>
+        </is>
+      </c>
+      <c r="I502" t="inlineStr">
+        <is>
+          <t>-46.58714832394393,168.80289890863722</t>
+        </is>
+      </c>
+      <c r="J502" t="inlineStr">
+        <is>
+          <t>-46.5867070492798,168.80225412985482</t>
+        </is>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:20:50+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>-46.59080744358629,168.80622888718736</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>-46.59018965571215,168.8063081064997</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>-46.589480710097035,168.80610942185464</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>-46.58885939992836,168.80563928082532</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>-46.58830471930312,168.8051379614822</t>
+        </is>
+      </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>-46.58776661557023,168.80457045519586</t>
+        </is>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>-46.587288094530145,168.80396293328033</t>
+        </is>
+      </c>
+      <c r="I503" t="inlineStr">
+        <is>
+          <t>-46.58682940722043,168.8033038305686</t>
+        </is>
+      </c>
+      <c r="J503" t="inlineStr">
+        <is>
+          <t>-46.58652834814962,168.802463947018</t>
+        </is>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-23 22:27:01+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>-46.590790770287285,168.80592437539687</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>-46.5901781879429,168.80607611411529</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>-46.589532939799966,168.8057910870935</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>-46.58894200480363,168.80543468626342</t>
+        </is>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>-46.588401692414855,168.80494730744152</t>
+        </is>
+      </c>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>-46.587902940836145,168.80436432606524</t>
+        </is>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>-46.58748569976058,168.80368465032896</t>
+        </is>
+      </c>
+      <c r="I504" t="inlineStr">
+        <is>
+          <t>-46.58707925213272,168.80298660825895</t>
+        </is>
+      </c>
+      <c r="J504" t="inlineStr">
+        <is>
+          <t>-46.58669154044212,168.8022723392183</t>
+        </is>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0548/nzd0548.xlsx
+++ b/data/nzd0548/nzd0548.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K504"/>
+  <dimension ref="A1:K505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18345,6 +18345,45 @@
       <c r="K504" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-02 22:27:13+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>336.3585714285715</v>
+      </c>
+      <c r="C505" t="n">
+        <v>327.76</v>
+      </c>
+      <c r="D505" t="n">
+        <v>348.8423076923077</v>
+      </c>
+      <c r="E505" t="n">
+        <v>340.5818181818182</v>
+      </c>
+      <c r="F505" t="n">
+        <v>337.6933333333333</v>
+      </c>
+      <c r="G505" t="n">
+        <v>331.79</v>
+      </c>
+      <c r="H505" t="n">
+        <v>326.7733333333333</v>
+      </c>
+      <c r="I505" t="n">
+        <v>325.4533333333333</v>
+      </c>
+      <c r="J505" t="n">
+        <v>320.575</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -18359,7 +18398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B532"/>
+  <dimension ref="A1:B533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23687,6 +23726,16 @@
       </c>
       <c r="B532" t="n">
         <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>2025-10-02 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>0.89</v>
       </c>
     </row>
   </sheetData>
@@ -24537,7 +24586,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K504"/>
+  <dimension ref="A1:K505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49749,6 +49798,63 @@
         </is>
       </c>
     </row>
+    <row r="505">
+      <c r="A505" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-02 22:27:13+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>-46.590777050630564,168.80567381850253</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>-46.59016572328351,168.8058239655899</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>-46.58956903857514,168.80557106514607</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>-46.589040403406166,168.80519097197964</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>-46.588507647421125,168.80473899300517</t>
+        </is>
+      </c>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>-46.588035408035246,168.8041640288997</t>
+        </is>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>-46.58758292220438,168.80354773303966</t>
+        </is>
+      </c>
+      <c r="I505" t="inlineStr">
+        <is>
+          <t>-46.58716437456289,168.80287852931954</t>
+        </is>
+      </c>
+      <c r="J505" t="inlineStr">
+        <is>
+          <t>-46.5867577324179,168.8021946212535</t>
+        </is>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0548/nzd0548.xlsx
+++ b/data/nzd0548/nzd0548.xlsx
@@ -23909,28 +23909,28 @@
         <v>0.0415</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2723332981303994</v>
+        <v>-0.2606667920554089</v>
       </c>
       <c r="J2" t="n">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K2" t="n">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02238811249609318</v>
+        <v>0.02049665494248665</v>
       </c>
       <c r="M2" t="n">
-        <v>10.44867645837362</v>
+        <v>10.48295133006259</v>
       </c>
       <c r="N2" t="n">
-        <v>184.421912113138</v>
+        <v>185.4156074530904</v>
       </c>
       <c r="O2" t="n">
-        <v>13.58020294815722</v>
+        <v>13.61673997156039</v>
       </c>
       <c r="P2" t="n">
-        <v>319.4463056856841</v>
+        <v>319.3284961956604</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23981,28 +23981,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.12290271162169</v>
+        <v>-0.1131809395444072</v>
       </c>
       <c r="J3" t="n">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K3" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006650766197253799</v>
+        <v>0.005626375963863617</v>
       </c>
       <c r="M3" t="n">
-        <v>9.068505387019044</v>
+        <v>9.096776257238723</v>
       </c>
       <c r="N3" t="n">
-        <v>130.5849889459278</v>
+        <v>131.3691448615</v>
       </c>
       <c r="O3" t="n">
-        <v>11.42737891845404</v>
+        <v>11.46163796590609</v>
       </c>
       <c r="P3" t="n">
-        <v>309.6776458448535</v>
+        <v>309.5800360413392</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24059,28 +24059,28 @@
         <v>0.07149999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.247795210070885</v>
+        <v>-0.2367214650724407</v>
       </c>
       <c r="J4" t="n">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K4" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03292967957169612</v>
+        <v>0.02987305436345067</v>
       </c>
       <c r="M4" t="n">
-        <v>8.023648714233937</v>
+        <v>8.057322209711849</v>
       </c>
       <c r="N4" t="n">
-        <v>103.7436838572823</v>
+        <v>104.9559629674788</v>
       </c>
       <c r="O4" t="n">
-        <v>10.18546434176088</v>
+        <v>10.24480175344935</v>
       </c>
       <c r="P4" t="n">
-        <v>330.3939767381453</v>
+        <v>330.2827275344399</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24137,28 +24137,28 @@
         <v>0.0602</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2205691621186278</v>
+        <v>-0.2079116804894137</v>
       </c>
       <c r="J5" t="n">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K5" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02682516619881148</v>
+        <v>0.02359992585876092</v>
       </c>
       <c r="M5" t="n">
-        <v>7.860810200801761</v>
+        <v>7.900952008297887</v>
       </c>
       <c r="N5" t="n">
-        <v>100.2756855979792</v>
+        <v>101.8666995562715</v>
       </c>
       <c r="O5" t="n">
-        <v>10.01377479265333</v>
+        <v>10.09290342549018</v>
       </c>
       <c r="P5" t="n">
-        <v>318.7708861432768</v>
+        <v>318.6422985145509</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24215,28 +24215,28 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1753878101964275</v>
+        <v>-0.1633537648015688</v>
       </c>
       <c r="J6" t="n">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K6" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01436364029243753</v>
+        <v>0.01237944285399817</v>
       </c>
       <c r="M6" t="n">
-        <v>8.181447696176599</v>
+        <v>8.223690820587905</v>
       </c>
       <c r="N6" t="n">
-        <v>120.9348047387192</v>
+        <v>122.2768731534238</v>
       </c>
       <c r="O6" t="n">
-        <v>10.99703617974949</v>
+        <v>11.05788737297608</v>
       </c>
       <c r="P6" t="n">
-        <v>316.5997307463543</v>
+        <v>316.4776697491317</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24293,28 +24293,28 @@
         <v>0.0618</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1273141621781336</v>
+        <v>0.1393414115154408</v>
       </c>
       <c r="J7" t="n">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K7" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003584284538983851</v>
+        <v>0.004283296692496386</v>
       </c>
       <c r="M7" t="n">
-        <v>11.74382236513862</v>
+        <v>11.77008226355496</v>
       </c>
       <c r="N7" t="n">
-        <v>257.4791987465046</v>
+        <v>258.5435880962942</v>
       </c>
       <c r="O7" t="n">
-        <v>16.04615837970274</v>
+        <v>16.07929065899035</v>
       </c>
       <c r="P7" t="n">
-        <v>301.9939718702016</v>
+        <v>301.8717681484021</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24371,28 +24371,28 @@
         <v>0.0706</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1776887703875444</v>
+        <v>0.1889546661945833</v>
       </c>
       <c r="J8" t="n">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K8" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L8" t="n">
-        <v>0.008387075074293593</v>
+        <v>0.009458142606477371</v>
       </c>
       <c r="M8" t="n">
-        <v>10.98277477703513</v>
+        <v>11.0007881346298</v>
       </c>
       <c r="N8" t="n">
-        <v>213.3548134577651</v>
+        <v>214.258549140006</v>
       </c>
       <c r="O8" t="n">
-        <v>14.60667017008891</v>
+        <v>14.63757319845083</v>
       </c>
       <c r="P8" t="n">
-        <v>298.0485345963143</v>
+        <v>297.9342402016797</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24449,28 +24449,28 @@
         <v>0.0725</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1781953540939922</v>
+        <v>0.1903304373996079</v>
       </c>
       <c r="J9" t="n">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K9" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004296469265656189</v>
+        <v>0.004902073843207178</v>
       </c>
       <c r="M9" t="n">
-        <v>15.64481091991874</v>
+        <v>15.649995078569</v>
       </c>
       <c r="N9" t="n">
-        <v>406.0422489772624</v>
+        <v>406.7171488753458</v>
       </c>
       <c r="O9" t="n">
-        <v>20.15049004310472</v>
+        <v>20.1672295785848</v>
       </c>
       <c r="P9" t="n">
-        <v>294.6215833523072</v>
+        <v>294.4941483522756</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24527,28 +24527,28 @@
         <v>0.0898</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2009167598693891</v>
+        <v>0.2069107398043303</v>
       </c>
       <c r="J10" t="n">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K10" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02631763367368933</v>
+        <v>0.02785375911278887</v>
       </c>
       <c r="M10" t="n">
-        <v>7.216551944439799</v>
+        <v>7.230738315045712</v>
       </c>
       <c r="N10" t="n">
-        <v>87.28892801613262</v>
+        <v>87.5232572258174</v>
       </c>
       <c r="O10" t="n">
-        <v>9.342854382689083</v>
+        <v>9.355386535350499</v>
       </c>
       <c r="P10" t="n">
-        <v>301.7618527367477</v>
+        <v>301.7010869922319</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">

--- a/data/nzd0548/nzd0548.xlsx
+++ b/data/nzd0548/nzd0548.xlsx
@@ -23900,13 +23900,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0342</v>
+        <v>0.0471</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0415</v>
+        <v>0.0566</v>
       </c>
       <c r="I2" t="n">
         <v>-0.2606813404646951</v>
@@ -23977,9 +23977,15 @@
       <c r="E3" t="n">
         <v>0.8748356014901221</v>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.06560000000000001</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0851</v>
+      </c>
       <c r="I3" t="n">
         <v>-0.1131809395444073</v>
       </c>
@@ -24050,13 +24056,13 @@
         <v>0.7502600355534235</v>
       </c>
       <c r="F4" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0575</v>
+        <v>0.06419999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07149999999999999</v>
+        <v>0.08069999999999999</v>
       </c>
       <c r="I4" t="n">
         <v>-0.236753282762502</v>
@@ -24128,13 +24134,13 @@
         <v>0.6250956370443262</v>
       </c>
       <c r="F5" t="n">
-        <v>0.055</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0498</v>
+        <v>0.0625</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0602</v>
+        <v>0.0823</v>
       </c>
       <c r="I5" t="n">
         <v>-0.2078946243166973</v>
@@ -24209,10 +24215,10 @@
         <v>0.06</v>
       </c>
       <c r="G6" t="n">
-        <v>0.053</v>
+        <v>0.0513</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06560000000000001</v>
+        <v>0.0701</v>
       </c>
       <c r="I6" t="n">
         <v>-0.1633488414615357</v>
@@ -24284,13 +24290,13 @@
         <v>0.375367483291688</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0455</v>
+        <v>0.0727</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0618</v>
+        <v>0.0961</v>
       </c>
       <c r="I7" t="n">
         <v>0.1393414115154409</v>
@@ -24362,13 +24368,13 @@
         <v>0.2502030847856962</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06</v>
+        <v>0.095</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0528</v>
+        <v>0.083</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0706</v>
+        <v>0.1109</v>
       </c>
       <c r="I8" t="n">
         <v>0.1889649314155498</v>
@@ -24440,13 +24446,13 @@
         <v>0.125164398507711</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0498</v>
+        <v>0.0712</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0725</v>
+        <v>0.09520000000000001</v>
       </c>
       <c r="I9" t="n">
         <v>0.1903370047484708</v>
@@ -24518,13 +24524,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0692</v>
+        <v>0.0989</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0898</v>
+        <v>0.1204</v>
       </c>
       <c r="I10" t="n">
         <v>0.2068831659824355</v>
